--- a/878.2023-АСУ ТП на выдачу/Документы на выдачу/22 и 24. Спецификация оборудования, изделия, материалов/Спецификация АСУ ЭТО.xlsx
+++ b/878.2023-АСУ ТП на выдачу/Документы на выдачу/22 и 24. Спецификация оборудования, изделия, материалов/Спецификация АСУ ЭТО.xlsx
@@ -4,11 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$H$84</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -28,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="138">
   <si>
     <t>Обозн</t>
   </si>
@@ -126,36 +129,6 @@
     <t>R5MC101</t>
   </si>
   <si>
-    <t>R5NKTB86</t>
-  </si>
-  <si>
-    <t>Комплект, крыша и основание, для шкафов nCQE, 800 x 600 мм</t>
-  </si>
-  <si>
-    <t>R5NCPE2080</t>
-  </si>
-  <si>
-    <t>Дверь сплошная для шкафов CQE N, ВхШ 2000х800 мм</t>
-  </si>
-  <si>
-    <t>Плата монтажная  для шкафов CQE N ВхШ 2000 x 800 мм</t>
-  </si>
-  <si>
-    <t>R5NPCE2080</t>
-  </si>
-  <si>
-    <t>Комплект панелей цоколя, Ш/Г=800 мм, В=100 мм, 1 кмп = 2 шт.</t>
-  </si>
-  <si>
-    <t>R5NFPB80</t>
-  </si>
-  <si>
-    <t>Уплотнитель для ввода кабеля для шкафов CQE &amp; CQE N, Ш=800 мм</t>
-  </si>
-  <si>
-    <t>R5NFPC800</t>
-  </si>
-  <si>
     <t>LDBO0-3001-4-4000-K01</t>
   </si>
   <si>
@@ -331,18 +304,6 @@
   </si>
   <si>
     <t>CUTP-1R</t>
-  </si>
-  <si>
-    <t>CSB-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Соединитель </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кабель соединения каркасов </t>
-  </si>
-  <si>
-    <t>C401</t>
   </si>
   <si>
     <t>M1201Е-0</t>
@@ -412,12 +373,6 @@
     <t>ЗИП</t>
   </si>
   <si>
-    <t>Зуммер с подсветкой, 80дБ, красный, 220V AС, IP40, пластик</t>
-  </si>
-  <si>
-    <t>MT22-SM220</t>
-  </si>
-  <si>
     <t>meyertec</t>
   </si>
   <si>
@@ -433,153 +388,15 @@
     <t>Автоматический выключатель 2П 10А 6кА</t>
   </si>
   <si>
-    <t>Каркас CR6 IOR</t>
-  </si>
-  <si>
-    <t>CR6 IOR</t>
-  </si>
-  <si>
     <t>N2100-4SFP24T-P5</t>
   </si>
   <si>
     <t>Цена б.НДС</t>
   </si>
   <si>
-    <t>13336.66</t>
-  </si>
-  <si>
-    <t>34945.07</t>
-  </si>
-  <si>
-    <t>31500.62</t>
-  </si>
-  <si>
-    <t>25451.62</t>
-  </si>
-  <si>
-    <t>20219.90</t>
-  </si>
-  <si>
-    <t>16230.47</t>
-  </si>
-  <si>
-    <t>13856.99</t>
-  </si>
-  <si>
-    <t>17472.74</t>
-  </si>
-  <si>
-    <t>8312.18</t>
-  </si>
-  <si>
-    <t>4050.05</t>
-  </si>
-  <si>
-    <t>5666.02</t>
-  </si>
-  <si>
-    <t>7881.08</t>
-  </si>
-  <si>
-    <t>2625.96</t>
-  </si>
-  <si>
-    <t>2423.97</t>
-  </si>
-  <si>
-    <t>1368.58</t>
-  </si>
-  <si>
-    <t>5070.55</t>
-  </si>
-  <si>
-    <t>1545.28</t>
-  </si>
-  <si>
-    <t>4848.87</t>
-  </si>
-  <si>
-    <t>26355.73</t>
-  </si>
-  <si>
-    <t>1524.03</t>
-  </si>
-  <si>
-    <t>430.07</t>
-  </si>
-  <si>
-    <t>1176.69</t>
-  </si>
-  <si>
     <t>MVA20-2-010-C</t>
   </si>
   <si>
-    <t>458.33</t>
-  </si>
-  <si>
-    <t>213.21</t>
-  </si>
-  <si>
-    <t>5564.85</t>
-  </si>
-  <si>
-    <t>5517.97</t>
-  </si>
-  <si>
-    <t>20106.60</t>
-  </si>
-  <si>
-    <t>1151.18</t>
-  </si>
-  <si>
-    <t>5365.01</t>
-  </si>
-  <si>
-    <t>306.83</t>
-  </si>
-  <si>
-    <t>569.25</t>
-  </si>
-  <si>
-    <t>449.00</t>
-  </si>
-  <si>
-    <t>127.71</t>
-  </si>
-  <si>
-    <t>7555.21</t>
-  </si>
-  <si>
-    <t>1043.51</t>
-  </si>
-  <si>
-    <t>66578.33</t>
-  </si>
-  <si>
-    <t>1091.67</t>
-  </si>
-  <si>
-    <t>56066.67</t>
-  </si>
-  <si>
-    <t>34533.33</t>
-  </si>
-  <si>
-    <t>106619.48</t>
-  </si>
-  <si>
-    <t>1295.00</t>
-  </si>
-  <si>
-    <t>37.53</t>
-  </si>
-  <si>
-    <t>421.49</t>
-  </si>
-  <si>
-    <t>33.33</t>
-  </si>
-  <si>
     <t>Сумма б.НДС</t>
   </si>
   <si>
@@ -601,9 +418,6 @@
     <t>KKM10D-MB</t>
   </si>
   <si>
-    <t>228.0</t>
-  </si>
-  <si>
     <t>Кабель для соединения каркасов и модулей</t>
   </si>
   <si>
@@ -611,6 +425,33 @@
   </si>
   <si>
     <t>CIDCS</t>
+  </si>
+  <si>
+    <t>Итог</t>
+  </si>
+  <si>
+    <t>Зуммер, 80дБ, черный, 24V AC/DC, IP40, пластик</t>
+  </si>
+  <si>
+    <t>MT22-FM24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сигнальный индикатор со встроенным диодом 220В, красный </t>
+  </si>
+  <si>
+    <t>ALIL1L220</t>
+  </si>
+  <si>
+    <t>SFP-модуль на дальность SFP-SM-20-0</t>
+  </si>
+  <si>
+    <t>SFP-SM-20-0</t>
+  </si>
+  <si>
+    <t>N2010-IGMSX850-055</t>
+  </si>
+  <si>
+    <t>Промышленный гигабитный SFP трансивер</t>
   </si>
 </sst>
 </file>
@@ -664,7 +505,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -680,6 +521,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -761,9 +608,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -823,6 +667,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1122,28 +967,28 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J705"/>
+  <dimension ref="A1:J708"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A40" zoomScaleNormal="140" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.6640625" customWidth="1"/>
-    <col min="2" max="2" width="72.6640625" customWidth="1"/>
-    <col min="3" max="3" width="21.6640625" customWidth="1"/>
-    <col min="4" max="4" width="16.5546875" customWidth="1"/>
+    <col min="1" max="1" width="7.7109375" customWidth="1"/>
+    <col min="2" max="2" width="72.7109375" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" customWidth="1"/>
     <col min="5" max="5" width="8" customWidth="1"/>
-    <col min="6" max="6" width="7.44140625" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" style="10" customWidth="1"/>
+    <col min="6" max="6" width="7.42578125" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" style="10" customWidth="1"/>
     <col min="8" max="8" width="14" customWidth="1"/>
-    <col min="9" max="9" width="10.109375" customWidth="1"/>
-    <col min="10" max="10" width="8.88671875" style="7" customWidth="1"/>
-    <col min="11" max="11" width="9.5546875" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" customWidth="1"/>
+    <col min="10" max="10" width="8.85546875" style="7" customWidth="1"/>
+    <col min="11" max="11" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1162,14 +1007,14 @@
       <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="27" t="s">
-        <v>135</v>
+      <c r="G1" s="26" t="s">
+        <v>117</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1188,19 +1033,19 @@
       <c r="F2" s="2">
         <v>6</v>
       </c>
-      <c r="G2" s="27">
+      <c r="G2" s="26">
         <v>7</v>
       </c>
-      <c r="H2" s="27">
+      <c r="H2" s="26">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
@@ -1208,10 +1053,10 @@
       <c r="F3" s="12">
         <v>1</v>
       </c>
-      <c r="G3" s="28"/>
-      <c r="H3" s="34"/>
-    </row>
-    <row r="4" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G3" s="27"/>
+      <c r="H3" s="33"/>
+    </row>
+    <row r="4" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="4" t="s">
         <v>6</v>
@@ -1225,24 +1070,24 @@
       <c r="E4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="30">
-        <v>2</v>
-      </c>
-      <c r="G4" s="29" t="s">
-        <v>136</v>
-      </c>
-      <c r="H4" s="27" t="e">
+      <c r="F4" s="29">
+        <v>1</v>
+      </c>
+      <c r="G4" s="28">
+        <v>13336.66</v>
+      </c>
+      <c r="H4" s="26">
         <f>G4*F4</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <v>13336.66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="4" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>8</v>
@@ -1250,24 +1095,24 @@
       <c r="E5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="30">
+      <c r="F5" s="29">
         <v>1</v>
       </c>
-      <c r="G5" s="29" t="s">
-        <v>137</v>
-      </c>
-      <c r="H5" s="27" t="e">
-        <f t="shared" ref="H5:H73" si="0">G5*F5</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G5" s="28">
+        <v>31500.62</v>
+      </c>
+      <c r="H5" s="26">
+        <f t="shared" ref="H5:H68" si="0">G5*F5</f>
+        <v>31500.62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>8</v>
@@ -1275,24 +1120,24 @@
       <c r="E6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="30">
-        <v>1</v>
-      </c>
-      <c r="G6" s="29" t="s">
-        <v>138</v>
-      </c>
-      <c r="H6" s="27" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="8"/>
+      <c r="F6" s="29">
+        <v>2</v>
+      </c>
+      <c r="G6" s="28">
+        <v>20219.900000000001</v>
+      </c>
+      <c r="H6" s="26">
+        <f t="shared" si="0"/>
+        <v>40439.800000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
       <c r="B7" s="4" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>8</v>
@@ -1300,24 +1145,24 @@
       <c r="E7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="30">
+      <c r="F7" s="29">
         <v>1</v>
       </c>
-      <c r="G7" s="29" t="s">
-        <v>139</v>
-      </c>
-      <c r="H7" s="27" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
+      <c r="G7" s="28">
+        <v>16230.47</v>
+      </c>
+      <c r="H7" s="26">
+        <f t="shared" si="0"/>
+        <v>16230.47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
       <c r="B8" s="4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>8</v>
@@ -1325,24 +1170,24 @@
       <c r="E8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="30">
-        <v>1</v>
-      </c>
-      <c r="G8" s="29" t="s">
-        <v>140</v>
-      </c>
-      <c r="H8" s="27" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
+      <c r="F8" s="29">
+        <v>2</v>
+      </c>
+      <c r="G8" s="28">
+        <v>13856.99</v>
+      </c>
+      <c r="H8" s="26">
+        <f t="shared" si="0"/>
+        <v>27713.98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
       <c r="B9" s="4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>8</v>
@@ -1350,24 +1195,24 @@
       <c r="E9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="30">
+      <c r="F9" s="29">
         <v>1</v>
       </c>
-      <c r="G9" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="H9" s="27" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G9" s="28">
+        <v>8312.18</v>
+      </c>
+      <c r="H9" s="26">
+        <f t="shared" si="0"/>
+        <v>8312.18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="4" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>8</v>
@@ -1375,24 +1220,24 @@
       <c r="E10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="30">
+      <c r="F10" s="29">
         <v>2</v>
       </c>
-      <c r="G10" s="29" t="s">
-        <v>142</v>
-      </c>
-      <c r="H10" s="27" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="8"/>
+      <c r="G10" s="28">
+        <v>4050.05</v>
+      </c>
+      <c r="H10" s="26">
+        <f t="shared" si="0"/>
+        <v>8100.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
       <c r="B11" s="4" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>8</v>
@@ -1400,24 +1245,24 @@
       <c r="E11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="30">
+      <c r="F11" s="29">
         <v>1</v>
       </c>
-      <c r="G11" s="29" t="s">
-        <v>143</v>
-      </c>
-      <c r="H11" s="27" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="5"/>
+      <c r="G11" s="28">
+        <v>7881.08</v>
+      </c>
+      <c r="H11" s="26">
+        <f t="shared" si="0"/>
+        <v>7881.08</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
       <c r="B12" s="4" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>8</v>
@@ -1425,24 +1270,24 @@
       <c r="E12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="30">
+      <c r="F12" s="29">
         <v>2</v>
       </c>
-      <c r="G12" s="29" t="s">
-        <v>144</v>
-      </c>
-      <c r="H12" s="27" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="5"/>
+      <c r="G12" s="28">
+        <v>2423.9699999999998</v>
+      </c>
+      <c r="H12" s="26">
+        <f t="shared" si="0"/>
+        <v>4847.9399999999996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
       <c r="B13" s="4" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>8</v>
@@ -1450,24 +1295,24 @@
       <c r="E13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="30">
-        <v>2</v>
-      </c>
-      <c r="G13" s="29" t="s">
-        <v>145</v>
-      </c>
-      <c r="H13" s="27" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="8"/>
+      <c r="F13" s="29">
+        <v>1</v>
+      </c>
+      <c r="G13" s="28">
+        <v>1368.58</v>
+      </c>
+      <c r="H13" s="26">
+        <f t="shared" si="0"/>
+        <v>1368.58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
       <c r="B14" s="4" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>8</v>
@@ -1475,74 +1320,74 @@
       <c r="E14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F14" s="30">
+      <c r="F14" s="29">
+        <v>2</v>
+      </c>
+      <c r="G14" s="28">
+        <v>5070.55</v>
+      </c>
+      <c r="H14" s="26">
+        <f t="shared" si="0"/>
+        <v>10141.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="1" customFormat="1" ht="33" x14ac:dyDescent="0.25">
+      <c r="A15" s="17"/>
+      <c r="B15" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="29">
+        <v>2</v>
+      </c>
+      <c r="G15" s="28">
+        <v>1545.28</v>
+      </c>
+      <c r="H15" s="26">
+        <f t="shared" si="0"/>
+        <v>3090.56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="8"/>
+      <c r="B16" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="29">
         <v>1</v>
       </c>
-      <c r="G14" s="29" t="s">
-        <v>146</v>
-      </c>
-      <c r="H14" s="27" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="2"/>
-      <c r="B15" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" s="30">
-        <v>1</v>
-      </c>
-      <c r="G15" s="29" t="s">
-        <v>147</v>
-      </c>
-      <c r="H15" s="27" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="15"/>
-      <c r="B16" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F16" s="30">
-        <v>1</v>
-      </c>
-      <c r="G16" s="29" t="s">
-        <v>148</v>
-      </c>
-      <c r="H16" s="27" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="2"/>
+      <c r="G16" s="28">
+        <v>4848.87</v>
+      </c>
+      <c r="H16" s="26">
+        <f t="shared" si="0"/>
+        <v>4848.87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
       <c r="B17" s="4" t="s">
-        <v>24</v>
+        <v>81</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>25</v>
+        <v>82</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>8</v>
@@ -1550,440 +1395,449 @@
       <c r="E17" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F17" s="30">
+      <c r="F17" s="29">
         <v>1</v>
       </c>
-      <c r="G17" s="29" t="s">
-        <v>149</v>
-      </c>
-      <c r="H17" s="27" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="2"/>
-      <c r="B18" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" s="2" t="s">
+      <c r="G17" s="28">
+        <v>26355.73</v>
+      </c>
+      <c r="H17" s="26">
+        <f t="shared" si="0"/>
+        <v>26355.73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="1" customFormat="1" ht="33" x14ac:dyDescent="0.25">
+      <c r="A18" s="18"/>
+      <c r="B18" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="D18" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="E18" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F18" s="30">
+      <c r="E18" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="29">
         <v>2</v>
       </c>
-      <c r="G18" s="29" t="s">
-        <v>150</v>
-      </c>
-      <c r="H18" s="27" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="2"/>
-      <c r="B19" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" s="2" t="s">
+      <c r="G18" s="28">
+        <v>1524.03</v>
+      </c>
+      <c r="H18" s="26">
+        <f t="shared" si="0"/>
+        <v>3048.06</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="15"/>
+      <c r="B19" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="29">
+        <v>2</v>
+      </c>
+      <c r="G19" s="28">
+        <v>430.07</v>
+      </c>
+      <c r="H19" s="26">
+        <f t="shared" si="0"/>
+        <v>860.14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="15"/>
+      <c r="B20" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="C20" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="D20" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" s="29">
+        <v>1</v>
+      </c>
+      <c r="G20" s="28">
+        <v>1176.69</v>
+      </c>
+      <c r="H20" s="26">
+        <f t="shared" si="0"/>
+        <v>1176.69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="15"/>
+      <c r="B21" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="C21" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="D21" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" s="29">
+        <v>1</v>
+      </c>
+      <c r="G21" s="28">
+        <v>458.33</v>
+      </c>
+      <c r="H21" s="26">
+        <f>G21*F21</f>
+        <v>458.33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="15"/>
+      <c r="B22" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D22" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="29">
+        <v>13</v>
+      </c>
+      <c r="G22" s="28">
+        <v>213.21</v>
+      </c>
+      <c r="H22" s="26">
+        <f t="shared" si="0"/>
+        <v>2771.73</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="23"/>
+      <c r="B23" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="D23" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" s="24">
+        <v>2</v>
+      </c>
+      <c r="G23" s="28">
+        <v>909.33</v>
+      </c>
+      <c r="H23" s="26">
+        <f t="shared" si="0"/>
+        <v>1818.66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="23"/>
+      <c r="B24" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C24" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="D24" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="E24" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" s="24">
+        <v>2</v>
+      </c>
+      <c r="G24" s="28">
+        <v>228</v>
+      </c>
+      <c r="H24" s="26">
+        <f t="shared" si="0"/>
+        <v>456</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="23"/>
+      <c r="B25" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="D25" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="E25" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" s="24">
+        <v>1</v>
+      </c>
+      <c r="G25" s="28">
+        <v>296.88</v>
+      </c>
+      <c r="H25" s="26">
+        <f t="shared" si="0"/>
+        <v>296.88</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="15"/>
+      <c r="B26" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D26" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E19" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F19" s="30">
+      <c r="E26" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" s="29">
         <v>2</v>
       </c>
-      <c r="G19" s="29" t="s">
-        <v>151</v>
-      </c>
-      <c r="H19" s="27" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="18"/>
-      <c r="B20" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="D20" s="18" t="s">
+      <c r="G26" s="28">
+        <v>5564.85</v>
+      </c>
+      <c r="H26" s="26">
+        <f t="shared" si="0"/>
+        <v>11129.7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="15"/>
+      <c r="B27" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D27" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E20" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="F20" s="30">
-        <v>3</v>
-      </c>
-      <c r="G20" s="29" t="s">
-        <v>152</v>
-      </c>
-      <c r="H20" s="27" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="8"/>
-      <c r="B21" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D21" s="2" t="s">
+      <c r="E27" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" s="29">
+        <v>4</v>
+      </c>
+      <c r="G27" s="28">
+        <v>5517.97</v>
+      </c>
+      <c r="H27" s="26">
+        <f t="shared" si="0"/>
+        <v>22071.88</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="15"/>
+      <c r="B28" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D28" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E21" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F21" s="30">
+      <c r="E28" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" s="29">
+        <v>4</v>
+      </c>
+      <c r="G28" s="28">
+        <v>20106.599999999999</v>
+      </c>
+      <c r="H28" s="26">
+        <f t="shared" si="0"/>
+        <v>80426.399999999994</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="15"/>
+      <c r="B29" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" s="29">
         <v>1</v>
       </c>
-      <c r="G21" s="29" t="s">
-        <v>153</v>
-      </c>
-      <c r="H21" s="27" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="8"/>
-      <c r="B22" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D22" s="2" t="s">
+      <c r="G29" s="28">
+        <v>1151.18</v>
+      </c>
+      <c r="H29" s="26">
+        <f t="shared" si="0"/>
+        <v>1151.18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="15"/>
+      <c r="B30" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D30" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E22" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F22" s="30">
+      <c r="E30" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" s="29">
         <v>1</v>
       </c>
-      <c r="G22" s="29" t="s">
-        <v>154</v>
-      </c>
-      <c r="H22" s="27" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="19"/>
-      <c r="B23" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="C23" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="D23" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="F23" s="30">
-        <v>3</v>
-      </c>
-      <c r="G23" s="29" t="s">
-        <v>155</v>
-      </c>
-      <c r="H23" s="27" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="16"/>
-      <c r="B24" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F24" s="30">
-        <v>2</v>
-      </c>
-      <c r="G24" s="29" t="s">
-        <v>156</v>
-      </c>
-      <c r="H24" s="27" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="16"/>
-      <c r="B25" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="C25" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="D25" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="E25" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="F25" s="30">
+      <c r="G30" s="28">
+        <v>5365.01</v>
+      </c>
+      <c r="H30" s="26">
+        <f t="shared" si="0"/>
+        <v>5365.01</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="15"/>
+      <c r="B31" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31" s="29">
         <v>1</v>
       </c>
-      <c r="G25" s="29" t="s">
-        <v>157</v>
-      </c>
-      <c r="H25" s="27" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="16"/>
-      <c r="B26" s="13" t="s">
+      <c r="G31" s="28">
+        <v>306.83</v>
+      </c>
+      <c r="H31" s="26">
+        <f t="shared" si="0"/>
+        <v>306.83</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="15"/>
+      <c r="B32" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C32" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="D32" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32" s="29">
+        <v>1</v>
+      </c>
+      <c r="G32" s="28">
+        <v>569.25</v>
+      </c>
+      <c r="H32" s="26">
+        <f t="shared" si="0"/>
+        <v>569.25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="15"/>
+      <c r="B33" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="C33" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="C26" s="26" t="s">
-        <v>158</v>
-      </c>
-      <c r="D26" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F26" s="30">
+      <c r="D33" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="E33" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33" s="25">
         <v>1</v>
       </c>
-      <c r="G26" s="29" t="s">
-        <v>159</v>
-      </c>
-      <c r="H26" s="27" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="16"/>
-      <c r="B27" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="D27" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F27" s="30">
-        <v>17</v>
-      </c>
-      <c r="G27" s="29" t="s">
-        <v>160</v>
-      </c>
-      <c r="H27" s="27" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="24"/>
-      <c r="B28" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="C28" s="25" t="s">
-        <v>183</v>
-      </c>
-      <c r="D28" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="E28" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="F28" s="25">
-        <v>2</v>
-      </c>
-      <c r="G28" s="29">
-        <v>909.33</v>
-      </c>
-      <c r="H28" s="27"/>
-    </row>
-    <row r="29" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="24"/>
-      <c r="B29" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="C29" s="25" t="s">
-        <v>185</v>
-      </c>
-      <c r="D29" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="E29" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="F29" s="25">
-        <v>2</v>
-      </c>
-      <c r="G29" s="29" t="s">
-        <v>188</v>
-      </c>
-      <c r="H29" s="27"/>
-    </row>
-    <row r="30" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="24"/>
-      <c r="B30" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="C30" s="25" t="s">
-        <v>187</v>
-      </c>
-      <c r="D30" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="E30" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="F30" s="25">
+      <c r="G33" s="28">
+        <v>449</v>
+      </c>
+      <c r="H33" s="26">
+        <f t="shared" si="0"/>
+        <v>449</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="15"/>
+      <c r="B34" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="C34" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="D34" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="E34" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="F34" s="29">
         <v>1</v>
       </c>
-      <c r="G30" s="29">
-        <v>296.88</v>
-      </c>
-      <c r="H30" s="27"/>
-    </row>
-    <row r="31" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="16"/>
-      <c r="B31" s="13" t="s">
+      <c r="G34" s="28">
+        <v>127.71</v>
+      </c>
+      <c r="H34" s="26">
+        <f t="shared" si="0"/>
+        <v>127.71</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="15"/>
+      <c r="B35" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F31" s="30">
-        <v>4</v>
-      </c>
-      <c r="G31" s="29" t="s">
-        <v>161</v>
-      </c>
-      <c r="H31" s="27" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="16"/>
-      <c r="B32" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F32" s="30">
-        <v>6</v>
-      </c>
-      <c r="G32" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="H32" s="27" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="16"/>
-      <c r="B33" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="C33" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F33" s="30">
-        <v>4</v>
-      </c>
-      <c r="G33" s="29" t="s">
-        <v>163</v>
-      </c>
-      <c r="H33" s="27" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="16"/>
-      <c r="B34" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F34" s="30">
-        <v>3</v>
-      </c>
-      <c r="G34" s="29" t="s">
-        <v>164</v>
-      </c>
-      <c r="H34" s="27" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="16"/>
-      <c r="B35" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>54</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>8</v>
@@ -1991,3191 +1845,3097 @@
       <c r="E35" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F35" s="30">
-        <v>3</v>
-      </c>
-      <c r="G35" s="29" t="s">
-        <v>165</v>
-      </c>
-      <c r="H35" s="27" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="16"/>
-      <c r="B36" s="13" t="s">
+      <c r="F35" s="29">
+        <v>2</v>
+      </c>
+      <c r="G35" s="28">
+        <v>7555.21</v>
+      </c>
+      <c r="H35" s="26">
+        <f t="shared" si="0"/>
+        <v>15110.42</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="15"/>
+      <c r="B36" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F36" s="29">
+        <v>8</v>
+      </c>
+      <c r="G36" s="28">
+        <v>1043.51</v>
+      </c>
+      <c r="H36" s="26">
+        <f t="shared" si="0"/>
+        <v>8348.08</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="15"/>
+      <c r="B37" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="C37" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="D37" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="F37" s="25">
+        <v>1</v>
+      </c>
+      <c r="G37" s="28">
+        <v>1043.51</v>
+      </c>
+      <c r="H37" s="26">
+        <f>G37*F37</f>
+        <v>1043.51</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="15"/>
+      <c r="B38" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F38" s="29">
+        <v>1</v>
+      </c>
+      <c r="G38" s="28">
+        <v>66578.33</v>
+      </c>
+      <c r="H38" s="26">
+        <f t="shared" si="0"/>
+        <v>66578.33</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="15"/>
+      <c r="B39" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F39" s="29">
+        <v>1</v>
+      </c>
+      <c r="G39" s="30"/>
+      <c r="H39" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="15"/>
+      <c r="B40" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F40" s="29">
+        <v>1</v>
+      </c>
+      <c r="G40" s="30"/>
+      <c r="H40" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="15"/>
+      <c r="B41" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="C41" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="D41" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="E41" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="F41" s="25">
+        <v>2</v>
+      </c>
+      <c r="G41" s="34"/>
+      <c r="H41" s="34"/>
+    </row>
+    <row r="42" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="15"/>
+      <c r="B42" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="C42" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="D42" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="E42" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="F42" s="25">
+        <v>8</v>
+      </c>
+      <c r="G42" s="34"/>
+      <c r="H42" s="34"/>
+    </row>
+    <row r="43" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="15"/>
+      <c r="B43" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F43" s="29">
+        <v>1</v>
+      </c>
+      <c r="G43" s="28">
+        <v>1091.67</v>
+      </c>
+      <c r="H43" s="26">
+        <f t="shared" si="0"/>
+        <v>1091.67</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="15"/>
+      <c r="B44" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F44" s="29">
+        <v>1</v>
+      </c>
+      <c r="G44" s="28">
+        <v>56066.67</v>
+      </c>
+      <c r="H44" s="26">
+        <f t="shared" si="0"/>
+        <v>56066.67</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="15"/>
+      <c r="B45" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F45" s="29">
+        <v>2</v>
+      </c>
+      <c r="G45" s="30"/>
+      <c r="H45" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="15"/>
+      <c r="B46" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F46" s="29">
+        <v>1</v>
+      </c>
+      <c r="G46" s="28">
+        <v>34533.33</v>
+      </c>
+      <c r="H46" s="26">
+        <f t="shared" si="0"/>
+        <v>34533.33</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="15"/>
+      <c r="B47" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F47" s="29">
+        <v>1</v>
+      </c>
+      <c r="G47" s="30"/>
+      <c r="H47" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="15"/>
+      <c r="B48" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F48" s="29">
+        <v>2</v>
+      </c>
+      <c r="G48" s="30"/>
+      <c r="H48" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="15"/>
+      <c r="B49" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="C49" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="D49" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="E49" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="F49" s="29">
+        <v>4</v>
+      </c>
+      <c r="G49" s="30"/>
+      <c r="H49" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="15"/>
+      <c r="B50" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="C50" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="D50" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E50" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="F50" s="29">
+        <v>4</v>
+      </c>
+      <c r="G50" s="30"/>
+      <c r="H50" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="15"/>
+      <c r="B51" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C51" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="D51" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F51" s="29">
+        <v>1</v>
+      </c>
+      <c r="G51" s="28">
+        <v>106619.48</v>
+      </c>
+      <c r="H51" s="26">
+        <f t="shared" si="0"/>
+        <v>106619.48</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="15"/>
+      <c r="B52" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F52" s="29">
+        <v>1</v>
+      </c>
+      <c r="G52" s="30"/>
+      <c r="H52" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="15"/>
+      <c r="B53" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F53" s="29">
+        <v>1</v>
+      </c>
+      <c r="G53" s="30"/>
+      <c r="H53" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" s="1" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="15"/>
+      <c r="B54" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F54" s="29">
+        <v>8</v>
+      </c>
+      <c r="G54" s="30"/>
+      <c r="H54" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="15"/>
+      <c r="B55" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F55" s="29">
+        <v>2</v>
+      </c>
+      <c r="G55" s="30"/>
+      <c r="H55" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="15"/>
+      <c r="B56" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F56" s="29">
+        <v>8</v>
+      </c>
+      <c r="G56" s="30"/>
+      <c r="H56" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="15"/>
+      <c r="B57" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F57" s="29">
+        <v>1</v>
+      </c>
+      <c r="G57" s="30"/>
+      <c r="H57" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="15"/>
+      <c r="B58" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F58" s="29">
+        <v>1</v>
+      </c>
+      <c r="G58" s="30"/>
+      <c r="H58" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="15"/>
+      <c r="B59" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="C59" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="D59" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D36" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F36" s="30">
+      <c r="E59" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F59" s="29">
+        <v>17</v>
+      </c>
+      <c r="G59" s="28">
+        <v>1295</v>
+      </c>
+      <c r="H59" s="26">
+        <f t="shared" si="0"/>
+        <v>22015</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="15"/>
+      <c r="B60" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F60" s="29">
+        <v>102</v>
+      </c>
+      <c r="G60" s="28">
+        <v>37.53</v>
+      </c>
+      <c r="H60" s="26">
+        <f t="shared" si="0"/>
+        <v>3828.06</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="15"/>
+      <c r="B61" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F61" s="29">
+        <v>2</v>
+      </c>
+      <c r="G61" s="30"/>
+      <c r="H61" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" s="1" customFormat="1" ht="132" x14ac:dyDescent="0.25">
+      <c r="A62" s="8"/>
+      <c r="B62" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="C62" s="20"/>
+      <c r="D62" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="E62" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F62" s="29">
+        <v>2</v>
+      </c>
+      <c r="G62" s="30"/>
+      <c r="H62" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="9"/>
+      <c r="B63" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="C63" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="D63" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E63" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="F63" s="29">
+        <v>12</v>
+      </c>
+      <c r="G63" s="28">
+        <v>421.49</v>
+      </c>
+      <c r="H63" s="26">
+        <f t="shared" si="0"/>
+        <v>5057.88</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="9"/>
+      <c r="B64" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="C64" s="23"/>
+      <c r="D64" s="23"/>
+      <c r="E64" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="F64" s="29">
+        <v>300</v>
+      </c>
+      <c r="G64" s="28">
+        <v>13</v>
+      </c>
+      <c r="H64" s="26">
+        <f t="shared" si="0"/>
+        <v>3900</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="9"/>
+      <c r="B65" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="C65" s="23"/>
+      <c r="D65" s="23"/>
+      <c r="E65" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="F65" s="29">
+        <v>50</v>
+      </c>
+      <c r="G65" s="28">
+        <v>33.33</v>
+      </c>
+      <c r="H65" s="26">
+        <f t="shared" si="0"/>
+        <v>1666.5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="24">
         <v>1</v>
       </c>
-      <c r="G36" s="29" t="s">
-        <v>166</v>
-      </c>
-      <c r="H36" s="27" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="16"/>
-      <c r="B37" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="C37" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="D37" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F37" s="30">
+      <c r="B66" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C66" s="12"/>
+      <c r="D66" s="12"/>
+      <c r="E66" s="12"/>
+      <c r="F66" s="31">
         <v>1</v>
       </c>
-      <c r="G37" s="29" t="s">
-        <v>167</v>
-      </c>
-      <c r="H37" s="27" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="16"/>
-      <c r="B38" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="C38" s="26" t="s">
-        <v>126</v>
-      </c>
-      <c r="D38" s="26" t="s">
-        <v>127</v>
-      </c>
-      <c r="E38" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="F38" s="30">
+      <c r="G66" s="32"/>
+      <c r="H66" s="32"/>
+    </row>
+    <row r="67" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="24"/>
+      <c r="B67" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="C67" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="D67" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="E67" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="F67" s="29">
         <v>1</v>
       </c>
-      <c r="G38" s="29" t="s">
-        <v>168</v>
-      </c>
-      <c r="H38" s="27" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="16"/>
-      <c r="B39" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="C39" s="26" t="s">
-        <v>129</v>
-      </c>
-      <c r="D39" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="E39" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="F39" s="30">
+      <c r="G67" s="30"/>
+      <c r="H67" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="23"/>
+      <c r="B68" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C68" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="D68" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="E68" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="F68" s="29">
         <v>1</v>
       </c>
-      <c r="G39" s="29" t="s">
-        <v>169</v>
-      </c>
-      <c r="H39" s="27" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="16"/>
-      <c r="B40" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F40" s="30">
-        <v>2</v>
-      </c>
-      <c r="G40" s="29" t="s">
-        <v>170</v>
-      </c>
-      <c r="H40" s="27" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="16"/>
-      <c r="B41" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F41" s="30">
+      <c r="G68" s="30"/>
+      <c r="H68" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="23"/>
+      <c r="B69" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C69" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="D69" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="E69" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="F69" s="29">
         <v>1</v>
       </c>
-      <c r="G41" s="29" t="s">
-        <v>171</v>
-      </c>
-      <c r="H41" s="27" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="16"/>
-      <c r="B42" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D42" s="3" t="s">
+      <c r="G69" s="30"/>
+      <c r="H69" s="35">
+        <f t="shared" ref="H69:H72" si="1">G69*F69</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="23"/>
+      <c r="B70" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F42" s="30">
+      <c r="C70" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="D70" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="E70" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="F70" s="29">
         <v>1</v>
       </c>
-      <c r="G42" s="29" t="s">
-        <v>172</v>
-      </c>
-      <c r="H42" s="27" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="16"/>
-      <c r="B43" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F43" s="30">
-        <v>4</v>
-      </c>
-      <c r="G43" s="31"/>
-      <c r="H43" s="36">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="16"/>
-      <c r="B44" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F44" s="30">
-        <v>4</v>
-      </c>
-      <c r="G44" s="31"/>
-      <c r="H44" s="36">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="16"/>
-      <c r="B45" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F45" s="30">
-        <v>1</v>
-      </c>
-      <c r="G45" s="31"/>
-      <c r="H45" s="36">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="16"/>
-      <c r="B46" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F46" s="30">
-        <v>1</v>
-      </c>
-      <c r="G46" s="31"/>
-      <c r="H46" s="36">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="16"/>
-      <c r="B47" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="C47" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="D47" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="E47" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="F47" s="26">
-        <v>2</v>
-      </c>
-      <c r="G47" s="35"/>
-      <c r="H47" s="35"/>
-    </row>
-    <row r="48" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="16"/>
-      <c r="B48" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="C48" s="26" t="s">
-        <v>191</v>
-      </c>
-      <c r="D48" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="E48" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="F48" s="26">
-        <v>12</v>
-      </c>
-      <c r="G48" s="35"/>
-      <c r="H48" s="35"/>
-    </row>
-    <row r="49" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="16"/>
-      <c r="B49" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F49" s="30">
-        <v>1</v>
-      </c>
-      <c r="G49" s="29" t="s">
-        <v>173</v>
-      </c>
-      <c r="H49" s="27" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="16"/>
-      <c r="B50" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F50" s="30">
-        <v>1</v>
-      </c>
-      <c r="G50" s="29" t="s">
-        <v>174</v>
-      </c>
-      <c r="H50" s="27" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" s="1" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="16"/>
-      <c r="B51" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="C51" s="3"/>
-      <c r="D51" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F51" s="30">
-        <v>2</v>
-      </c>
-      <c r="G51" s="31"/>
-      <c r="H51" s="36">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="16"/>
-      <c r="B52" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F52" s="30">
-        <v>1</v>
-      </c>
-      <c r="G52" s="29" t="s">
-        <v>175</v>
-      </c>
-      <c r="H52" s="27" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="16"/>
-      <c r="B53" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F53" s="30">
-        <v>1</v>
-      </c>
-      <c r="G53" s="31"/>
-      <c r="H53" s="36">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="16"/>
-      <c r="B54" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="C54" s="26" t="s">
-        <v>133</v>
-      </c>
-      <c r="D54" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="E54" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="F54" s="30">
-        <v>1</v>
-      </c>
-      <c r="G54" s="31"/>
-      <c r="H54" s="36">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="16"/>
-      <c r="B55" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F55" s="30">
-        <v>2</v>
-      </c>
-      <c r="G55" s="31"/>
-      <c r="H55" s="36">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="16"/>
-      <c r="B56" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="C56" s="25" t="s">
-        <v>134</v>
-      </c>
-      <c r="D56" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F56" s="30">
-        <v>1</v>
-      </c>
-      <c r="G56" s="29" t="s">
-        <v>176</v>
-      </c>
-      <c r="H56" s="27" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="16"/>
-      <c r="B57" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F57" s="30">
-        <v>1</v>
-      </c>
-      <c r="G57" s="31"/>
-      <c r="H57" s="36">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="16"/>
-      <c r="B58" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F58" s="30">
-        <v>1</v>
-      </c>
-      <c r="G58" s="31"/>
-      <c r="H58" s="36">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="16"/>
-      <c r="B59" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F59" s="30">
-        <v>12</v>
-      </c>
-      <c r="G59" s="31"/>
-      <c r="H59" s="36">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="16"/>
-      <c r="B60" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F60" s="30">
-        <v>14</v>
-      </c>
-      <c r="G60" s="31"/>
-      <c r="H60" s="36">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="16"/>
-      <c r="B61" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F61" s="30">
-        <v>12</v>
-      </c>
-      <c r="G61" s="31"/>
-      <c r="H61" s="36">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="16"/>
-      <c r="B62" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F62" s="30">
-        <v>1</v>
-      </c>
-      <c r="G62" s="31"/>
-      <c r="H62" s="36">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="16"/>
-      <c r="B63" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E63" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F63" s="30">
-        <v>1</v>
-      </c>
-      <c r="G63" s="31"/>
-      <c r="H63" s="36">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="16"/>
-      <c r="B64" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="E64" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F64" s="30">
-        <v>17</v>
-      </c>
-      <c r="G64" s="29" t="s">
-        <v>177</v>
-      </c>
-      <c r="H64" s="27" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="16"/>
-      <c r="B65" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="E65" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F65" s="30">
-        <v>148</v>
-      </c>
-      <c r="G65" s="29" t="s">
-        <v>178</v>
-      </c>
-      <c r="H65" s="27" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="16"/>
-      <c r="B66" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F66" s="30">
-        <v>2</v>
-      </c>
-      <c r="G66" s="31"/>
-      <c r="H66" s="36">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" s="1" customFormat="1" ht="110.4" x14ac:dyDescent="0.3">
-      <c r="A67" s="8"/>
-      <c r="B67" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="C67" s="21"/>
-      <c r="D67" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="E67" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="F67" s="30">
-        <v>2</v>
-      </c>
-      <c r="G67" s="31"/>
-      <c r="H67" s="36">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="9"/>
-      <c r="B68" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="C68" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="D68" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E68" s="22" t="s">
-        <v>114</v>
-      </c>
-      <c r="F68" s="30">
-        <v>12</v>
-      </c>
-      <c r="G68" s="29" t="s">
-        <v>179</v>
-      </c>
-      <c r="H68" s="27" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="9"/>
-      <c r="B69" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="C69" s="24"/>
-      <c r="D69" s="24"/>
-      <c r="E69" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="F69" s="30">
-        <v>300</v>
-      </c>
-      <c r="G69" s="29">
-        <v>13</v>
-      </c>
-      <c r="H69" s="27">
-        <f t="shared" si="0"/>
-        <v>3900</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="9"/>
-      <c r="B70" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="C70" s="24"/>
-      <c r="D70" s="24"/>
-      <c r="E70" s="25" t="s">
-        <v>119</v>
-      </c>
-      <c r="F70" s="30">
-        <v>50</v>
-      </c>
-      <c r="G70" s="29" t="s">
-        <v>180</v>
-      </c>
-      <c r="H70" s="27" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A71" s="25">
-        <v>1</v>
-      </c>
-      <c r="B71" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="C71" s="12"/>
-      <c r="D71" s="12"/>
-      <c r="E71" s="12"/>
-      <c r="F71" s="32">
-        <v>1</v>
-      </c>
-      <c r="G71" s="33"/>
-      <c r="H71" s="33"/>
-      <c r="J71"/>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A72" s="25"/>
-      <c r="B72" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="C72" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="D72" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="E72" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="F72" s="30">
-        <v>2</v>
-      </c>
-      <c r="G72" s="31"/>
-      <c r="H72" s="36">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J72"/>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A73" s="24"/>
-      <c r="B73" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="C73" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="D73" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="E73" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="F73" s="30">
-        <v>1</v>
-      </c>
-      <c r="G73" s="31"/>
-      <c r="H73" s="36">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J73"/>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A74" s="24"/>
-      <c r="B74" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="C74" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="D74" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="E74" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="F74" s="30">
-        <v>1</v>
-      </c>
-      <c r="G74" s="31"/>
-      <c r="H74" s="36">
-        <f t="shared" ref="H74:H77" si="1">G74*F74</f>
-        <v>0</v>
-      </c>
-      <c r="J74"/>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A75" s="24"/>
-      <c r="B75" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="C75" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="D75" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="E75" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="F75" s="30">
-        <v>2</v>
-      </c>
-      <c r="G75" s="31"/>
-      <c r="H75" s="36">
+      <c r="G70" s="30"/>
+      <c r="H70" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J75"/>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A76" s="24"/>
-      <c r="B76" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="C76" s="26" t="s">
-        <v>82</v>
-      </c>
-      <c r="D76" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="E76" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="F76" s="30">
+    </row>
+    <row r="71" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="23"/>
+      <c r="B71" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C71" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="D71" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="E71" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="F71" s="29">
         <v>1</v>
       </c>
-      <c r="G76" s="31"/>
-      <c r="H76" s="36">
+      <c r="G71" s="30"/>
+      <c r="H71" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J76"/>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A77" s="24"/>
-      <c r="B77" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="C77" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="D77" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="E77" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="F77" s="30">
+    </row>
+    <row r="72" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="23"/>
+      <c r="B72" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C72" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="D72" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="E72" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="F72" s="29">
         <v>1</v>
       </c>
-      <c r="G77" s="31"/>
-      <c r="H77" s="36">
+      <c r="G72" s="30"/>
+      <c r="H72" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+    </row>
+    <row r="73" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A73"/>
+      <c r="B73"/>
+      <c r="C73"/>
+      <c r="D73"/>
+      <c r="E73"/>
+      <c r="F73"/>
+      <c r="G73"/>
+      <c r="H73"/>
+    </row>
+    <row r="74" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="G74" s="36" t="s">
+        <v>129</v>
+      </c>
+      <c r="H74" s="36">
+        <f>SUM(H4:H72)</f>
+        <v>662510.05000000016</v>
+      </c>
+      <c r="J74"/>
+    </row>
+    <row r="75" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="G75"/>
+      <c r="J75"/>
+    </row>
+    <row r="76" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="G76"/>
+      <c r="J76"/>
+    </row>
+    <row r="77" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="G77"/>
       <c r="J77"/>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G78"/>
       <c r="J78"/>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G79"/>
       <c r="J79"/>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G80"/>
       <c r="J80"/>
     </row>
-    <row r="81" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="81" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G81"/>
       <c r="J81"/>
     </row>
-    <row r="82" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="82" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G82"/>
       <c r="J82"/>
     </row>
-    <row r="83" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="83" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G83"/>
       <c r="J83"/>
     </row>
-    <row r="84" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="84" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G84"/>
       <c r="J84"/>
     </row>
-    <row r="85" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="85" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G85"/>
       <c r="J85"/>
     </row>
-    <row r="86" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="86" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G86"/>
       <c r="J86"/>
     </row>
-    <row r="87" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="87" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G87"/>
       <c r="J87"/>
     </row>
-    <row r="88" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="88" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G88"/>
       <c r="J88"/>
     </row>
-    <row r="89" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="89" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G89"/>
       <c r="J89"/>
     </row>
-    <row r="90" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="90" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G90"/>
       <c r="J90"/>
     </row>
-    <row r="91" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="91" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G91"/>
       <c r="J91"/>
     </row>
-    <row r="92" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="92" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G92"/>
       <c r="J92"/>
     </row>
-    <row r="93" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="93" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G93"/>
       <c r="J93"/>
     </row>
-    <row r="94" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="94" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G94"/>
       <c r="J94"/>
     </row>
-    <row r="95" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="95" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G95"/>
       <c r="J95"/>
     </row>
-    <row r="96" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="96" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G96"/>
       <c r="J96"/>
     </row>
-    <row r="97" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="97" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G97"/>
       <c r="J97"/>
     </row>
-    <row r="98" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="98" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G98"/>
       <c r="J98"/>
     </row>
-    <row r="99" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="99" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G99"/>
       <c r="J99"/>
     </row>
-    <row r="100" spans="7:10" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G100"/>
       <c r="J100"/>
     </row>
-    <row r="101" spans="7:10" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G101"/>
       <c r="J101"/>
     </row>
-    <row r="102" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="102" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G102"/>
       <c r="J102"/>
     </row>
-    <row r="103" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="103" spans="7:10" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G103"/>
       <c r="J103"/>
     </row>
-    <row r="104" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="104" spans="7:10" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G104"/>
       <c r="J104"/>
     </row>
-    <row r="105" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="105" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G105"/>
       <c r="J105"/>
     </row>
-    <row r="106" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="106" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G106"/>
       <c r="J106"/>
     </row>
-    <row r="107" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="107" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G107"/>
       <c r="J107"/>
     </row>
-    <row r="108" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="108" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G108"/>
       <c r="J108"/>
     </row>
-    <row r="109" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="109" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G109"/>
       <c r="J109"/>
     </row>
-    <row r="110" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="110" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G110"/>
       <c r="J110"/>
     </row>
-    <row r="111" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="111" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G111"/>
       <c r="J111"/>
     </row>
-    <row r="112" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="112" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G112"/>
       <c r="J112"/>
     </row>
-    <row r="113" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="113" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G113"/>
       <c r="J113"/>
     </row>
-    <row r="114" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="114" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G114"/>
       <c r="J114"/>
     </row>
-    <row r="115" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="115" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G115"/>
       <c r="J115"/>
     </row>
-    <row r="116" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="116" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G116"/>
       <c r="J116"/>
     </row>
-    <row r="117" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="117" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G117"/>
       <c r="J117"/>
     </row>
-    <row r="118" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="118" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G118"/>
       <c r="J118"/>
     </row>
-    <row r="119" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="119" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G119"/>
       <c r="J119"/>
     </row>
-    <row r="120" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="120" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G120"/>
       <c r="J120"/>
     </row>
-    <row r="121" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="121" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G121"/>
       <c r="J121"/>
     </row>
-    <row r="122" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="122" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G122"/>
       <c r="J122"/>
     </row>
-    <row r="123" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="123" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G123"/>
       <c r="J123"/>
     </row>
-    <row r="124" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="124" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G124"/>
       <c r="J124"/>
     </row>
-    <row r="125" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="125" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G125"/>
       <c r="J125"/>
     </row>
-    <row r="126" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="126" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G126"/>
       <c r="J126"/>
     </row>
-    <row r="127" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="127" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G127"/>
       <c r="J127"/>
     </row>
-    <row r="128" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="128" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G128"/>
       <c r="J128"/>
     </row>
-    <row r="129" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="129" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G129"/>
       <c r="J129"/>
     </row>
-    <row r="130" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="130" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G130"/>
       <c r="J130"/>
     </row>
-    <row r="131" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="131" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G131"/>
       <c r="J131"/>
     </row>
-    <row r="132" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="132" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G132"/>
       <c r="J132"/>
     </row>
-    <row r="133" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="133" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G133"/>
       <c r="J133"/>
     </row>
-    <row r="134" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="134" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G134"/>
       <c r="J134"/>
     </row>
-    <row r="135" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="135" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G135"/>
       <c r="J135"/>
     </row>
-    <row r="136" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="136" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G136"/>
       <c r="J136"/>
     </row>
-    <row r="137" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="137" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G137"/>
       <c r="J137"/>
     </row>
-    <row r="138" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="138" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G138"/>
       <c r="J138"/>
     </row>
-    <row r="139" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="139" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G139"/>
       <c r="J139"/>
     </row>
-    <row r="140" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="140" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G140"/>
       <c r="J140"/>
     </row>
-    <row r="141" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="141" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G141"/>
       <c r="J141"/>
     </row>
-    <row r="142" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="142" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G142"/>
       <c r="J142"/>
     </row>
-    <row r="143" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="143" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G143"/>
       <c r="J143"/>
     </row>
-    <row r="144" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="144" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G144"/>
       <c r="J144"/>
     </row>
-    <row r="145" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="145" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G145"/>
       <c r="J145"/>
     </row>
-    <row r="146" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="146" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G146"/>
       <c r="J146"/>
     </row>
-    <row r="147" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="147" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G147"/>
       <c r="J147"/>
     </row>
-    <row r="148" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="148" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G148"/>
       <c r="J148"/>
     </row>
-    <row r="149" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="149" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G149"/>
       <c r="J149"/>
     </row>
-    <row r="150" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="150" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G150"/>
       <c r="J150"/>
     </row>
-    <row r="151" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="151" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G151"/>
       <c r="J151"/>
     </row>
-    <row r="152" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="152" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G152"/>
       <c r="J152"/>
     </row>
-    <row r="153" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="153" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G153"/>
       <c r="J153"/>
     </row>
-    <row r="154" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="154" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G154"/>
       <c r="J154"/>
     </row>
-    <row r="155" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="155" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G155"/>
       <c r="J155"/>
     </row>
-    <row r="156" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="156" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G156"/>
       <c r="J156"/>
     </row>
-    <row r="157" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="157" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G157"/>
       <c r="J157"/>
     </row>
-    <row r="158" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="158" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G158"/>
       <c r="J158"/>
     </row>
-    <row r="159" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="159" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G159"/>
       <c r="J159"/>
     </row>
-    <row r="160" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="160" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G160"/>
       <c r="J160"/>
     </row>
-    <row r="161" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="161" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G161"/>
       <c r="J161"/>
     </row>
-    <row r="162" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="162" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G162"/>
       <c r="J162"/>
     </row>
-    <row r="163" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="163" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G163"/>
       <c r="J163"/>
     </row>
-    <row r="164" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="164" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G164"/>
       <c r="J164"/>
     </row>
-    <row r="165" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="165" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G165"/>
       <c r="J165"/>
     </row>
-    <row r="166" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="166" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G166"/>
       <c r="J166"/>
     </row>
-    <row r="167" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="167" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G167"/>
       <c r="J167"/>
     </row>
-    <row r="168" spans="7:10" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G168"/>
       <c r="J168"/>
     </row>
-    <row r="169" spans="7:10" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G169"/>
       <c r="J169"/>
     </row>
-    <row r="170" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="170" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G170"/>
       <c r="J170"/>
     </row>
-    <row r="171" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="171" spans="7:10" ht="37.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G171"/>
       <c r="J171"/>
     </row>
-    <row r="172" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="172" spans="7:10" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G172"/>
       <c r="J172"/>
     </row>
-    <row r="173" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="173" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G173"/>
       <c r="J173"/>
     </row>
-    <row r="174" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="174" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G174"/>
       <c r="J174"/>
     </row>
-    <row r="175" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="175" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G175"/>
       <c r="J175"/>
     </row>
-    <row r="176" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="176" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G176"/>
       <c r="J176"/>
     </row>
-    <row r="177" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="177" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G177"/>
       <c r="J177"/>
     </row>
-    <row r="178" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="178" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G178"/>
       <c r="J178"/>
     </row>
-    <row r="179" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="179" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G179"/>
       <c r="J179"/>
     </row>
-    <row r="180" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="180" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G180"/>
       <c r="J180"/>
     </row>
-    <row r="181" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="181" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G181"/>
       <c r="J181"/>
     </row>
-    <row r="182" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="182" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G182"/>
       <c r="J182"/>
     </row>
-    <row r="183" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="183" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G183"/>
       <c r="J183"/>
     </row>
-    <row r="184" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="184" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G184"/>
       <c r="J184"/>
     </row>
-    <row r="185" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="185" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G185"/>
       <c r="J185"/>
     </row>
-    <row r="186" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="186" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G186"/>
       <c r="J186"/>
     </row>
-    <row r="187" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="187" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G187"/>
       <c r="J187"/>
     </row>
-    <row r="188" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="188" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G188"/>
       <c r="J188"/>
     </row>
-    <row r="189" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="189" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G189"/>
       <c r="J189"/>
     </row>
-    <row r="190" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="190" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G190"/>
       <c r="J190"/>
     </row>
-    <row r="191" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="191" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G191"/>
       <c r="J191"/>
     </row>
-    <row r="192" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="192" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G192"/>
       <c r="J192"/>
     </row>
-    <row r="193" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="193" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G193"/>
       <c r="J193"/>
     </row>
-    <row r="194" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="194" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G194"/>
       <c r="J194"/>
     </row>
-    <row r="195" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="195" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G195"/>
       <c r="J195"/>
     </row>
-    <row r="196" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="196" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G196"/>
       <c r="J196"/>
     </row>
-    <row r="197" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="197" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G197"/>
       <c r="J197"/>
     </row>
-    <row r="198" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="198" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G198"/>
       <c r="J198"/>
     </row>
-    <row r="199" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="199" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G199"/>
       <c r="J199"/>
     </row>
-    <row r="200" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="200" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G200"/>
       <c r="J200"/>
     </row>
-    <row r="201" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="201" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G201"/>
       <c r="J201"/>
     </row>
-    <row r="202" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="202" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G202"/>
       <c r="J202"/>
     </row>
-    <row r="203" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="203" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G203"/>
       <c r="J203"/>
     </row>
-    <row r="204" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="204" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G204"/>
       <c r="J204"/>
     </row>
-    <row r="205" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="205" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G205"/>
       <c r="J205"/>
     </row>
-    <row r="206" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="206" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G206"/>
       <c r="J206"/>
     </row>
-    <row r="207" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="207" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G207"/>
       <c r="J207"/>
     </row>
-    <row r="208" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="208" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G208"/>
       <c r="J208"/>
     </row>
-    <row r="209" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="209" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G209"/>
       <c r="J209"/>
     </row>
-    <row r="210" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="210" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G210"/>
       <c r="J210"/>
     </row>
-    <row r="211" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="211" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G211"/>
       <c r="J211"/>
     </row>
-    <row r="212" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="212" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G212"/>
       <c r="J212"/>
     </row>
-    <row r="213" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="213" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G213"/>
       <c r="J213"/>
     </row>
-    <row r="214" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="214" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G214"/>
       <c r="J214"/>
     </row>
-    <row r="215" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="215" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G215"/>
       <c r="J215"/>
     </row>
-    <row r="216" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="216" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G216"/>
       <c r="J216"/>
     </row>
-    <row r="217" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="217" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G217"/>
       <c r="J217"/>
     </row>
-    <row r="218" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="218" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G218"/>
       <c r="J218"/>
     </row>
-    <row r="219" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="219" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G219"/>
       <c r="J219"/>
     </row>
-    <row r="220" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="220" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G220"/>
       <c r="J220"/>
     </row>
-    <row r="221" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="221" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G221"/>
       <c r="J221"/>
     </row>
-    <row r="222" spans="7:10" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G222"/>
       <c r="J222"/>
     </row>
-    <row r="223" spans="7:10" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G223"/>
       <c r="J223"/>
     </row>
-    <row r="224" spans="7:10" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G224"/>
       <c r="J224"/>
     </row>
-    <row r="225" spans="7:10" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="7:10" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G225"/>
       <c r="J225"/>
     </row>
-    <row r="226" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="226" spans="7:10" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G226"/>
       <c r="J226"/>
     </row>
-    <row r="227" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="227" spans="7:10" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G227"/>
       <c r="J227"/>
     </row>
-    <row r="228" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="228" spans="7:10" ht="59.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G228"/>
       <c r="J228"/>
     </row>
-    <row r="229" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="229" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G229"/>
       <c r="J229"/>
     </row>
-    <row r="230" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="230" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G230"/>
       <c r="J230"/>
     </row>
-    <row r="231" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="231" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G231"/>
       <c r="J231"/>
     </row>
-    <row r="232" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="232" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G232"/>
       <c r="J232"/>
     </row>
-    <row r="233" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="233" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G233"/>
       <c r="J233"/>
     </row>
-    <row r="234" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="234" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G234"/>
       <c r="J234"/>
     </row>
-    <row r="235" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="235" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G235"/>
       <c r="J235"/>
     </row>
-    <row r="236" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="236" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G236"/>
       <c r="J236"/>
     </row>
-    <row r="237" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="237" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G237"/>
       <c r="J237"/>
     </row>
-    <row r="238" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="238" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G238"/>
       <c r="J238"/>
     </row>
-    <row r="239" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="239" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G239"/>
       <c r="J239"/>
     </row>
-    <row r="240" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="240" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G240"/>
       <c r="J240"/>
     </row>
-    <row r="241" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="241" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G241"/>
       <c r="J241"/>
     </row>
-    <row r="242" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="242" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G242"/>
       <c r="J242"/>
     </row>
-    <row r="243" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="243" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G243"/>
       <c r="J243"/>
     </row>
-    <row r="244" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="244" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G244"/>
       <c r="J244"/>
     </row>
-    <row r="245" spans="7:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G245"/>
       <c r="J245"/>
     </row>
-    <row r="246" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="246" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G246"/>
       <c r="J246"/>
     </row>
-    <row r="247" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="247" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G247"/>
       <c r="J247"/>
     </row>
-    <row r="248" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="248" spans="7:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G248"/>
       <c r="J248"/>
     </row>
-    <row r="249" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="249" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G249"/>
       <c r="J249"/>
     </row>
-    <row r="250" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="250" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G250"/>
       <c r="J250"/>
     </row>
-    <row r="251" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="251" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G251"/>
       <c r="J251"/>
     </row>
-    <row r="252" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="252" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G252"/>
       <c r="J252"/>
     </row>
-    <row r="253" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="253" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G253"/>
       <c r="J253"/>
     </row>
-    <row r="254" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="254" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G254"/>
       <c r="J254"/>
     </row>
-    <row r="255" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="255" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G255"/>
       <c r="J255"/>
     </row>
-    <row r="256" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="256" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G256"/>
       <c r="J256"/>
     </row>
-    <row r="257" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="257" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G257"/>
       <c r="J257"/>
     </row>
-    <row r="258" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="258" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G258"/>
       <c r="J258"/>
     </row>
-    <row r="259" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="259" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G259"/>
       <c r="J259"/>
     </row>
-    <row r="260" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="260" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G260"/>
       <c r="J260"/>
     </row>
-    <row r="261" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="261" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G261"/>
       <c r="J261"/>
     </row>
-    <row r="262" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="262" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G262"/>
       <c r="J262"/>
     </row>
-    <row r="263" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="263" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G263"/>
       <c r="J263"/>
     </row>
-    <row r="264" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="264" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G264"/>
       <c r="J264"/>
     </row>
-    <row r="265" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="265" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G265"/>
       <c r="J265"/>
     </row>
-    <row r="266" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="266" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G266"/>
       <c r="J266"/>
     </row>
-    <row r="267" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="267" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G267"/>
       <c r="J267"/>
     </row>
-    <row r="268" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="268" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G268"/>
       <c r="J268"/>
     </row>
-    <row r="269" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="269" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G269"/>
       <c r="J269"/>
     </row>
-    <row r="270" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="270" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G270"/>
       <c r="J270"/>
     </row>
-    <row r="271" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="271" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G271"/>
       <c r="J271"/>
     </row>
-    <row r="272" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="272" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G272"/>
       <c r="J272"/>
     </row>
-    <row r="273" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="273" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G273"/>
       <c r="J273"/>
     </row>
-    <row r="274" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="274" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G274"/>
       <c r="J274"/>
     </row>
-    <row r="275" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="275" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G275"/>
       <c r="J275"/>
     </row>
-    <row r="276" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="276" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G276"/>
       <c r="J276"/>
     </row>
-    <row r="277" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="277" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G277"/>
       <c r="J277"/>
     </row>
-    <row r="278" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="278" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G278"/>
       <c r="J278"/>
     </row>
-    <row r="279" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="279" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G279"/>
       <c r="J279"/>
     </row>
-    <row r="280" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="280" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G280"/>
       <c r="J280"/>
     </row>
-    <row r="281" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="281" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G281"/>
       <c r="J281"/>
     </row>
-    <row r="282" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="282" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G282"/>
       <c r="J282"/>
     </row>
-    <row r="283" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="283" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G283"/>
       <c r="J283"/>
     </row>
-    <row r="284" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="284" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G284"/>
       <c r="J284"/>
     </row>
-    <row r="285" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="285" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G285"/>
       <c r="J285"/>
     </row>
-    <row r="286" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="286" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G286"/>
       <c r="J286"/>
     </row>
-    <row r="287" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="287" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G287"/>
       <c r="J287"/>
     </row>
-    <row r="288" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="288" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G288"/>
       <c r="J288"/>
     </row>
-    <row r="289" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="289" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G289"/>
       <c r="J289"/>
     </row>
-    <row r="290" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="290" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G290"/>
       <c r="J290"/>
     </row>
-    <row r="291" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="291" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G291"/>
       <c r="J291"/>
     </row>
-    <row r="292" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="292" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G292"/>
       <c r="J292"/>
     </row>
-    <row r="293" spans="7:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G293"/>
       <c r="J293"/>
     </row>
-    <row r="294" spans="7:10" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G294"/>
       <c r="J294"/>
     </row>
-    <row r="295" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="295" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G295"/>
       <c r="J295"/>
     </row>
-    <row r="296" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="296" spans="7:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G296"/>
       <c r="J296"/>
     </row>
-    <row r="297" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="297" spans="7:10" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G297"/>
       <c r="J297"/>
     </row>
-    <row r="298" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="298" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G298"/>
       <c r="J298"/>
     </row>
-    <row r="299" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="299" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G299"/>
       <c r="J299"/>
     </row>
-    <row r="300" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="300" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G300"/>
       <c r="J300"/>
     </row>
-    <row r="301" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="301" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G301"/>
       <c r="J301"/>
     </row>
-    <row r="302" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="302" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G302"/>
       <c r="J302"/>
     </row>
-    <row r="303" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="303" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G303"/>
       <c r="J303"/>
     </row>
-    <row r="304" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="304" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G304"/>
       <c r="J304"/>
     </row>
-    <row r="305" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="305" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G305"/>
       <c r="J305"/>
     </row>
-    <row r="306" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="306" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G306"/>
       <c r="J306"/>
     </row>
-    <row r="307" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="307" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G307"/>
       <c r="J307"/>
     </row>
-    <row r="308" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="308" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G308"/>
       <c r="J308"/>
     </row>
-    <row r="309" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="309" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G309"/>
       <c r="J309"/>
     </row>
-    <row r="310" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="310" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G310"/>
       <c r="J310"/>
     </row>
-    <row r="311" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="311" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G311"/>
       <c r="J311"/>
     </row>
-    <row r="312" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="312" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G312"/>
       <c r="J312"/>
     </row>
-    <row r="313" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="313" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G313"/>
       <c r="J313"/>
     </row>
-    <row r="314" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="314" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G314"/>
       <c r="J314"/>
     </row>
-    <row r="315" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="315" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G315"/>
       <c r="J315"/>
     </row>
-    <row r="316" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="316" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G316"/>
       <c r="J316"/>
     </row>
-    <row r="317" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="317" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G317"/>
       <c r="J317"/>
     </row>
-    <row r="318" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="318" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G318"/>
       <c r="J318"/>
     </row>
-    <row r="319" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="319" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G319"/>
       <c r="J319"/>
     </row>
-    <row r="320" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="320" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G320"/>
       <c r="J320"/>
     </row>
-    <row r="321" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="321" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G321"/>
       <c r="J321"/>
     </row>
-    <row r="322" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="322" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G322"/>
       <c r="J322"/>
     </row>
-    <row r="323" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="323" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G323"/>
       <c r="J323"/>
     </row>
-    <row r="324" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="324" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G324"/>
       <c r="J324"/>
     </row>
-    <row r="325" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="325" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G325"/>
       <c r="J325"/>
     </row>
-    <row r="326" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="326" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G326"/>
       <c r="J326"/>
     </row>
-    <row r="327" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="327" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G327"/>
       <c r="J327"/>
     </row>
-    <row r="328" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="328" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G328"/>
       <c r="J328"/>
     </row>
-    <row r="329" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="329" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G329"/>
       <c r="J329"/>
     </row>
-    <row r="330" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="330" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G330"/>
       <c r="J330"/>
     </row>
-    <row r="331" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="331" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G331"/>
       <c r="J331"/>
     </row>
-    <row r="332" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="332" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G332"/>
       <c r="J332"/>
     </row>
-    <row r="333" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="333" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G333"/>
       <c r="J333"/>
     </row>
-    <row r="334" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="334" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G334"/>
       <c r="J334"/>
     </row>
-    <row r="335" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="335" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G335"/>
       <c r="J335"/>
     </row>
-    <row r="336" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="336" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G336"/>
       <c r="J336"/>
     </row>
-    <row r="337" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="337" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G337"/>
       <c r="J337"/>
     </row>
-    <row r="338" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="338" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G338"/>
       <c r="J338"/>
     </row>
-    <row r="339" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="339" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G339"/>
       <c r="J339"/>
     </row>
-    <row r="340" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="340" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G340"/>
       <c r="J340"/>
     </row>
-    <row r="341" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="341" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G341"/>
       <c r="J341"/>
     </row>
-    <row r="342" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="342" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G342"/>
       <c r="J342"/>
     </row>
-    <row r="343" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="343" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G343"/>
       <c r="J343"/>
     </row>
-    <row r="344" spans="7:10" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G344"/>
       <c r="J344"/>
     </row>
-    <row r="345" spans="7:10" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G345"/>
       <c r="J345"/>
     </row>
-    <row r="346" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="346" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G346"/>
       <c r="J346"/>
     </row>
-    <row r="347" spans="7:10" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="7:10" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G347"/>
       <c r="J347"/>
     </row>
-    <row r="348" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="348" spans="7:10" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G348"/>
       <c r="J348"/>
     </row>
-    <row r="349" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="349" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G349"/>
       <c r="J349"/>
     </row>
-    <row r="350" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="350" spans="7:10" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G350"/>
       <c r="J350"/>
     </row>
-    <row r="351" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="351" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G351"/>
       <c r="J351"/>
     </row>
-    <row r="352" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="352" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G352"/>
       <c r="J352"/>
     </row>
-    <row r="353" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="353" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G353"/>
       <c r="J353"/>
     </row>
-    <row r="354" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="354" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G354"/>
       <c r="J354"/>
     </row>
-    <row r="355" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="355" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G355"/>
       <c r="J355"/>
     </row>
-    <row r="356" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="356" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G356"/>
       <c r="J356"/>
     </row>
-    <row r="357" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="357" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G357"/>
       <c r="J357"/>
     </row>
-    <row r="358" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="358" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G358"/>
       <c r="J358"/>
     </row>
-    <row r="359" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="359" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G359"/>
       <c r="J359"/>
     </row>
-    <row r="360" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="360" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G360"/>
       <c r="J360"/>
     </row>
-    <row r="361" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="361" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G361"/>
       <c r="J361"/>
     </row>
-    <row r="362" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="362" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G362"/>
       <c r="J362"/>
     </row>
-    <row r="363" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="363" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G363"/>
       <c r="J363"/>
     </row>
-    <row r="364" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="364" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G364"/>
       <c r="J364"/>
     </row>
-    <row r="365" spans="7:10" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G365"/>
       <c r="J365"/>
     </row>
-    <row r="366" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="366" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G366"/>
       <c r="J366"/>
     </row>
-    <row r="367" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="367" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G367"/>
       <c r="J367"/>
     </row>
-    <row r="368" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="368" spans="7:10" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G368"/>
       <c r="J368"/>
     </row>
-    <row r="369" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="369" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G369"/>
       <c r="J369"/>
     </row>
-    <row r="370" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="370" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G370"/>
       <c r="J370"/>
     </row>
-    <row r="371" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="371" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G371"/>
       <c r="J371"/>
     </row>
-    <row r="372" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="372" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G372"/>
       <c r="J372"/>
     </row>
-    <row r="373" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="373" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G373"/>
       <c r="J373"/>
     </row>
-    <row r="374" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="374" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G374"/>
       <c r="J374"/>
     </row>
-    <row r="375" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="375" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G375"/>
       <c r="J375"/>
     </row>
-    <row r="376" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="376" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G376"/>
       <c r="J376"/>
     </row>
-    <row r="377" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="377" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G377"/>
       <c r="J377"/>
     </row>
-    <row r="378" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="378" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G378"/>
       <c r="J378"/>
     </row>
-    <row r="379" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="379" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G379"/>
       <c r="J379"/>
     </row>
-    <row r="380" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="380" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G380"/>
       <c r="J380"/>
     </row>
-    <row r="381" spans="7:10" x14ac:dyDescent="0.3">
-      <c r="G381"/>
+    <row r="381" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J381"/>
     </row>
-    <row r="382" spans="7:10" x14ac:dyDescent="0.3">
-      <c r="G382"/>
+    <row r="382" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J382"/>
     </row>
-    <row r="383" spans="7:10" x14ac:dyDescent="0.3">
-      <c r="G383"/>
+    <row r="383" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J383"/>
     </row>
-    <row r="384" spans="7:10" x14ac:dyDescent="0.3">
-      <c r="G384"/>
+    <row r="384" spans="7:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J384"/>
     </row>
-    <row r="385" spans="7:10" x14ac:dyDescent="0.3">
-      <c r="G385"/>
+    <row r="385" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J385"/>
     </row>
-    <row r="386" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="386" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J386"/>
     </row>
-    <row r="387" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="387" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J387"/>
     </row>
-    <row r="388" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="388" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J388"/>
     </row>
-    <row r="389" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="389" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J389"/>
     </row>
-    <row r="390" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="390" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J390"/>
     </row>
-    <row r="391" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="391" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J391"/>
     </row>
-    <row r="392" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="392" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J392"/>
     </row>
-    <row r="393" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="393" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J393"/>
     </row>
-    <row r="394" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="394" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J394"/>
     </row>
-    <row r="395" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="395" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J395"/>
     </row>
-    <row r="396" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="396" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J396"/>
     </row>
-    <row r="397" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="397" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J397"/>
     </row>
-    <row r="398" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="398" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J398"/>
     </row>
-    <row r="399" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="399" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J399"/>
     </row>
-    <row r="400" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="400" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J400"/>
     </row>
-    <row r="401" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="401" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J401"/>
     </row>
-    <row r="402" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="402" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J402"/>
     </row>
-    <row r="403" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="403" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J403"/>
     </row>
-    <row r="404" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="404" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J404"/>
     </row>
-    <row r="405" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="405" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J405"/>
     </row>
-    <row r="406" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="406" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J406"/>
     </row>
-    <row r="407" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="407" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J407"/>
     </row>
-    <row r="408" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="408" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J408"/>
     </row>
-    <row r="409" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="409" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J409"/>
     </row>
-    <row r="410" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="410" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J410"/>
     </row>
-    <row r="411" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="411" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J411"/>
     </row>
-    <row r="412" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="412" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J412"/>
     </row>
-    <row r="413" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="413" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J413"/>
     </row>
-    <row r="414" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="414" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J414"/>
     </row>
-    <row r="415" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="415" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J415"/>
     </row>
-    <row r="416" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="416" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J416"/>
     </row>
-    <row r="417" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="417" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J417"/>
     </row>
-    <row r="418" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="418" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J418"/>
     </row>
-    <row r="419" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="419" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J419"/>
     </row>
-    <row r="420" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="420" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J420"/>
     </row>
-    <row r="421" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="421" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J421"/>
     </row>
-    <row r="422" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="422" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J422"/>
     </row>
-    <row r="423" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="423" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J423"/>
     </row>
-    <row r="424" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="424" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J424"/>
     </row>
-    <row r="425" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="425" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J425"/>
     </row>
-    <row r="426" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="426" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J426"/>
     </row>
-    <row r="427" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="427" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J427"/>
     </row>
-    <row r="428" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="428" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J428"/>
     </row>
-    <row r="429" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="429" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J429"/>
     </row>
-    <row r="430" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="430" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J430"/>
     </row>
-    <row r="431" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="431" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J431"/>
     </row>
-    <row r="432" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="432" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J432"/>
     </row>
-    <row r="433" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="433" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J433"/>
     </row>
-    <row r="434" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="434" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J434"/>
     </row>
-    <row r="435" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="435" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J435"/>
     </row>
-    <row r="436" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="436" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J436"/>
     </row>
-    <row r="437" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="437" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J437"/>
     </row>
-    <row r="438" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="438" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J438"/>
     </row>
-    <row r="439" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="439" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J439"/>
     </row>
-    <row r="440" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="440" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J440"/>
     </row>
-    <row r="441" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="441" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J441"/>
     </row>
-    <row r="442" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="442" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J442"/>
     </row>
-    <row r="443" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="443" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J443"/>
     </row>
-    <row r="444" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="444" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J444"/>
     </row>
-    <row r="445" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="445" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J445"/>
     </row>
-    <row r="446" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="446" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J446"/>
     </row>
-    <row r="447" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="447" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J447"/>
     </row>
-    <row r="448" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="448" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J448"/>
     </row>
-    <row r="449" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="449" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J449"/>
     </row>
-    <row r="450" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="450" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J450"/>
     </row>
-    <row r="451" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="451" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J451"/>
     </row>
-    <row r="452" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="452" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J452"/>
     </row>
-    <row r="453" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="453" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J453"/>
     </row>
-    <row r="454" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="454" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J454"/>
     </row>
-    <row r="455" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="455" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J455"/>
     </row>
-    <row r="456" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="456" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J456"/>
     </row>
-    <row r="457" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="457" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J457"/>
     </row>
-    <row r="458" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="458" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J458"/>
     </row>
-    <row r="459" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="459" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J459"/>
     </row>
-    <row r="460" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="460" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J460"/>
     </row>
-    <row r="461" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="461" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J461"/>
     </row>
-    <row r="462" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="462" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J462"/>
     </row>
-    <row r="463" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="463" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J463"/>
     </row>
-    <row r="464" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="464" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J464"/>
     </row>
-    <row r="465" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="465" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J465"/>
     </row>
-    <row r="466" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="466" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J466"/>
     </row>
-    <row r="467" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="467" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J467"/>
     </row>
-    <row r="468" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="468" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J468"/>
     </row>
-    <row r="469" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="469" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J469"/>
     </row>
-    <row r="470" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="470" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J470"/>
     </row>
-    <row r="471" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="471" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J471"/>
     </row>
-    <row r="472" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="472" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J472"/>
     </row>
-    <row r="473" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="473" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J473"/>
     </row>
-    <row r="474" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="474" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J474"/>
     </row>
-    <row r="475" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="475" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J475"/>
     </row>
-    <row r="476" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="476" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J476"/>
     </row>
-    <row r="477" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="477" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J477"/>
     </row>
-    <row r="478" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="478" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J478"/>
     </row>
-    <row r="479" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="479" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J479"/>
     </row>
-    <row r="480" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="480" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J480"/>
     </row>
-    <row r="481" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="481" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J481"/>
     </row>
-    <row r="482" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="482" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J482"/>
     </row>
-    <row r="483" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="483" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J483"/>
     </row>
-    <row r="484" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="484" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J484"/>
     </row>
-    <row r="485" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="485" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J485"/>
     </row>
-    <row r="486" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="486" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J486"/>
     </row>
-    <row r="487" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="487" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J487"/>
     </row>
-    <row r="488" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="488" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J488"/>
     </row>
-    <row r="489" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="489" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J489"/>
     </row>
-    <row r="490" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="490" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J490"/>
     </row>
-    <row r="491" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="491" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J491"/>
     </row>
-    <row r="492" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="492" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J492"/>
     </row>
-    <row r="493" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="493" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J493"/>
     </row>
-    <row r="494" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="494" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J494"/>
     </row>
-    <row r="495" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="495" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J495"/>
     </row>
-    <row r="496" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="496" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J496"/>
     </row>
-    <row r="497" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="497" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J497"/>
     </row>
-    <row r="498" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="498" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J498"/>
     </row>
-    <row r="499" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="499" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J499"/>
     </row>
-    <row r="500" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="500" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J500"/>
     </row>
-    <row r="501" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="501" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J501"/>
     </row>
-    <row r="502" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="502" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J502"/>
     </row>
-    <row r="503" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="503" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J503"/>
     </row>
-    <row r="504" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="504" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J504"/>
     </row>
-    <row r="505" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="505" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J505"/>
     </row>
-    <row r="506" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="506" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J506"/>
     </row>
-    <row r="507" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="507" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J507"/>
     </row>
-    <row r="508" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="508" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J508"/>
     </row>
-    <row r="509" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="509" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J509"/>
     </row>
-    <row r="510" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="510" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J510"/>
     </row>
-    <row r="511" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="511" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J511"/>
     </row>
-    <row r="512" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="512" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J512"/>
     </row>
-    <row r="513" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="513" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J513"/>
     </row>
-    <row r="514" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="514" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J514"/>
     </row>
-    <row r="515" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="515" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J515"/>
     </row>
-    <row r="516" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="516" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J516"/>
     </row>
-    <row r="517" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="517" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J517"/>
     </row>
-    <row r="518" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="518" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J518"/>
     </row>
-    <row r="519" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="519" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J519"/>
     </row>
-    <row r="520" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="520" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J520"/>
     </row>
-    <row r="521" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="521" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J521"/>
     </row>
-    <row r="522" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="522" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J522"/>
     </row>
-    <row r="523" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="523" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J523"/>
     </row>
-    <row r="524" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="524" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J524"/>
     </row>
-    <row r="525" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="525" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J525"/>
     </row>
-    <row r="526" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="526" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J526"/>
     </row>
-    <row r="527" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="527" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J527"/>
     </row>
-    <row r="528" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="528" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J528"/>
     </row>
-    <row r="529" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="529" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J529"/>
     </row>
-    <row r="530" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="530" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J530"/>
     </row>
-    <row r="531" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="531" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J531"/>
     </row>
-    <row r="532" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="532" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J532"/>
     </row>
-    <row r="533" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="533" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J533"/>
     </row>
-    <row r="534" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="534" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J534"/>
     </row>
-    <row r="535" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="535" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J535"/>
     </row>
-    <row r="536" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="536" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J536"/>
     </row>
-    <row r="537" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="537" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J537"/>
     </row>
-    <row r="538" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="538" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J538"/>
     </row>
-    <row r="539" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="539" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J539"/>
     </row>
-    <row r="540" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="540" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J540"/>
     </row>
-    <row r="541" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="541" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J541"/>
     </row>
-    <row r="542" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="542" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J542"/>
     </row>
-    <row r="543" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="543" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J543"/>
     </row>
-    <row r="544" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="544" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J544"/>
     </row>
-    <row r="545" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="545" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J545"/>
     </row>
-    <row r="546" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="546" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J546"/>
     </row>
-    <row r="547" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="547" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J547"/>
     </row>
-    <row r="548" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="548" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J548"/>
     </row>
-    <row r="549" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="549" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J549"/>
     </row>
-    <row r="550" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="550" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J550"/>
     </row>
-    <row r="551" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="551" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J551"/>
     </row>
-    <row r="552" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="552" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J552"/>
     </row>
-    <row r="553" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="553" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J553"/>
     </row>
-    <row r="554" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="554" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J554"/>
     </row>
-    <row r="555" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="555" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J555"/>
     </row>
-    <row r="556" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="556" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J556"/>
     </row>
-    <row r="557" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="557" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J557"/>
     </row>
-    <row r="558" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="558" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J558"/>
     </row>
-    <row r="559" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="559" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J559"/>
     </row>
-    <row r="560" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="560" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J560"/>
     </row>
-    <row r="561" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="561" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J561"/>
     </row>
-    <row r="562" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="562" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J562"/>
     </row>
-    <row r="563" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="563" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J563"/>
     </row>
-    <row r="564" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="564" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J564"/>
     </row>
-    <row r="565" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="565" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J565"/>
     </row>
-    <row r="566" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="566" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J566"/>
     </row>
-    <row r="567" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="567" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J567"/>
     </row>
-    <row r="568" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="568" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J568"/>
     </row>
-    <row r="569" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="569" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J569"/>
     </row>
-    <row r="570" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="570" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J570"/>
     </row>
-    <row r="571" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="571" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J571"/>
     </row>
-    <row r="572" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="572" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J572"/>
     </row>
-    <row r="573" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="573" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J573"/>
     </row>
-    <row r="574" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="574" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J574"/>
     </row>
-    <row r="575" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="575" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J575"/>
     </row>
-    <row r="576" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="576" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J576"/>
     </row>
-    <row r="577" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="577" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J577"/>
     </row>
-    <row r="578" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="578" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J578"/>
     </row>
-    <row r="579" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="579" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J579"/>
     </row>
-    <row r="580" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="580" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J580"/>
     </row>
-    <row r="581" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="581" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J581"/>
     </row>
-    <row r="582" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="582" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J582"/>
     </row>
-    <row r="583" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="583" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J583"/>
     </row>
-    <row r="584" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="584" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J584"/>
     </row>
-    <row r="585" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="585" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J585"/>
     </row>
-    <row r="586" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="586" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J586"/>
     </row>
-    <row r="587" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="587" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J587"/>
     </row>
-    <row r="588" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="588" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J588"/>
     </row>
-    <row r="589" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="589" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J589"/>
     </row>
-    <row r="590" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="590" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J590"/>
     </row>
-    <row r="591" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="591" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J591"/>
     </row>
-    <row r="592" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="592" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J592"/>
     </row>
-    <row r="593" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="593" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J593"/>
     </row>
-    <row r="594" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="594" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J594"/>
     </row>
-    <row r="595" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="595" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J595"/>
     </row>
-    <row r="596" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="596" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J596"/>
     </row>
-    <row r="597" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="597" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J597"/>
     </row>
-    <row r="598" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="598" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J598"/>
     </row>
-    <row r="599" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="599" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J599"/>
     </row>
-    <row r="600" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="600" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J600"/>
     </row>
-    <row r="601" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="601" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J601"/>
     </row>
-    <row r="602" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="602" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J602"/>
     </row>
-    <row r="603" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="603" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J603"/>
     </row>
-    <row r="604" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="604" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J604"/>
     </row>
-    <row r="605" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="605" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J605"/>
     </row>
-    <row r="606" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="606" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J606"/>
     </row>
-    <row r="607" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="607" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J607"/>
     </row>
-    <row r="608" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="608" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J608"/>
     </row>
-    <row r="609" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="609" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J609"/>
     </row>
-    <row r="610" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="610" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J610"/>
     </row>
-    <row r="611" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="611" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J611"/>
     </row>
-    <row r="612" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="612" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J612"/>
     </row>
-    <row r="613" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="613" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J613"/>
     </row>
-    <row r="614" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="614" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J614"/>
     </row>
-    <row r="615" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="615" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J615"/>
     </row>
-    <row r="616" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="616" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J616"/>
     </row>
-    <row r="617" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="617" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J617"/>
     </row>
-    <row r="618" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="618" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J618"/>
     </row>
-    <row r="619" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="619" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J619"/>
     </row>
-    <row r="620" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="620" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J620"/>
     </row>
-    <row r="621" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="621" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J621"/>
     </row>
-    <row r="622" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="622" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J622"/>
     </row>
-    <row r="623" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="623" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J623"/>
     </row>
-    <row r="624" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="624" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J624"/>
     </row>
-    <row r="625" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="625" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J625"/>
     </row>
-    <row r="626" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="626" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J626"/>
     </row>
-    <row r="627" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="627" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J627"/>
     </row>
-    <row r="628" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="628" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J628"/>
     </row>
-    <row r="629" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="629" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J629"/>
     </row>
-    <row r="630" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="630" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J630"/>
     </row>
-    <row r="631" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="631" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J631"/>
     </row>
-    <row r="632" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="632" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J632"/>
     </row>
-    <row r="633" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="633" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J633"/>
     </row>
-    <row r="634" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="634" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J634"/>
     </row>
-    <row r="635" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="635" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J635"/>
     </row>
-    <row r="636" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="636" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J636"/>
     </row>
-    <row r="637" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="637" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J637"/>
     </row>
-    <row r="638" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="638" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J638"/>
     </row>
-    <row r="639" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="639" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J639"/>
     </row>
-    <row r="640" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="640" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J640"/>
     </row>
-    <row r="641" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="641" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J641"/>
     </row>
-    <row r="642" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="642" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J642"/>
     </row>
-    <row r="643" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="643" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J643"/>
     </row>
-    <row r="644" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="644" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J644"/>
     </row>
-    <row r="645" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="645" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J645"/>
     </row>
-    <row r="646" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="646" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J646"/>
     </row>
-    <row r="647" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="647" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J647"/>
     </row>
-    <row r="648" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="648" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J648"/>
     </row>
-    <row r="649" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="649" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J649"/>
     </row>
-    <row r="650" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="650" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J650"/>
     </row>
-    <row r="651" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="651" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J651"/>
     </row>
-    <row r="652" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="652" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J652"/>
     </row>
-    <row r="653" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="653" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J653"/>
     </row>
-    <row r="654" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="654" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J654"/>
     </row>
-    <row r="655" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="655" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J655"/>
     </row>
-    <row r="656" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="656" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J656"/>
     </row>
-    <row r="657" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="657" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J657"/>
     </row>
-    <row r="658" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="658" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J658"/>
     </row>
-    <row r="659" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="659" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J659"/>
     </row>
-    <row r="660" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="660" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J660"/>
     </row>
-    <row r="661" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="661" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J661"/>
     </row>
-    <row r="662" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="662" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J662"/>
     </row>
-    <row r="663" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="663" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J663"/>
     </row>
-    <row r="664" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="664" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J664"/>
     </row>
-    <row r="665" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="665" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J665"/>
     </row>
-    <row r="666" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="666" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J666"/>
     </row>
-    <row r="667" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="667" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J667"/>
     </row>
-    <row r="668" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="668" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J668"/>
     </row>
-    <row r="669" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="669" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J669"/>
     </row>
-    <row r="670" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="670" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J670"/>
     </row>
-    <row r="671" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="671" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J671"/>
     </row>
-    <row r="672" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="672" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J672"/>
     </row>
-    <row r="673" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="673" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J673"/>
     </row>
-    <row r="674" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="674" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J674"/>
     </row>
-    <row r="675" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="675" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J675"/>
     </row>
-    <row r="676" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="676" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J676"/>
     </row>
-    <row r="677" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="677" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J677"/>
     </row>
-    <row r="678" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="678" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J678"/>
     </row>
-    <row r="679" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="679" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J679"/>
     </row>
-    <row r="680" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="680" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J680"/>
     </row>
-    <row r="681" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="681" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J681"/>
     </row>
-    <row r="682" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="682" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J682"/>
     </row>
-    <row r="683" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="683" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J683"/>
     </row>
-    <row r="684" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="684" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J684"/>
     </row>
-    <row r="685" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="685" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J685"/>
     </row>
-    <row r="686" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="686" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J686"/>
     </row>
-    <row r="687" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="687" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J687"/>
     </row>
-    <row r="688" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="688" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J688"/>
     </row>
-    <row r="689" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="689" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J689"/>
     </row>
-    <row r="690" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="690" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J690"/>
     </row>
-    <row r="691" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="691" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J691"/>
     </row>
-    <row r="692" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="692" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J692"/>
     </row>
-    <row r="693" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="693" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J693"/>
     </row>
-    <row r="694" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="694" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J694"/>
     </row>
-    <row r="695" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="695" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J695"/>
     </row>
-    <row r="696" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="696" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J696"/>
     </row>
-    <row r="697" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="697" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J697"/>
     </row>
-    <row r="698" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="698" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J698"/>
     </row>
-    <row r="699" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="699" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J699"/>
     </row>
-    <row r="700" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="700" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J700"/>
     </row>
-    <row r="701" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="701" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J701"/>
     </row>
-    <row r="702" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="702" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J702"/>
     </row>
-    <row r="703" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="703" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J703"/>
     </row>
-    <row r="704" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="704" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J704"/>
     </row>
-    <row r="705" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="705" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J705"/>
+    </row>
+    <row r="706" spans="10:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="J706"/>
+    </row>
+    <row r="707" spans="10:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="J707"/>
+    </row>
+    <row r="708" spans="10:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="J708"/>
     </row>
   </sheetData>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.59055118110236227" bottom="0.47244094488188981" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="77" fitToHeight="4" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="85" fitToHeight="4" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>